--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\cropProjectionInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F267E-70C3-41B8-A135-51037793A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED500D50-07BC-4B14-877C-5F64E7F3623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20950" yWindow="2830" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,33 +404,33 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -445,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -453,45 +453,45 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -610,35 +610,35 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\cropProjectionInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED500D50-07BC-4B14-877C-5F64E7F3623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C693B2-9A23-4DCB-8514-358EE55158BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20950" yWindow="2830" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,33 +404,33 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -445,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -453,45 +453,45 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -610,35 +610,35 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\cropProjectionInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C693B2-9A23-4DCB-8514-358EE55158BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2866AA-96AC-444D-9E27-FF1F0EFD5BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20950" yWindow="2830" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3470" yWindow="6080" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Soybeans</t>
-  </si>
-  <si>
-    <t>total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+  <si>
+    <t>Expected yield per acre</t>
+  </si>
+  <si>
+    <t>Harvest price</t>
+  </si>
+  <si>
+    <t>Market Revenue</t>
+  </si>
+  <si>
+    <t>Less variable costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fertilizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pesticides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dryer Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machinery fuel ($2.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machinery repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hauling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Insurance/misc.</t>
+  </si>
+  <si>
+    <t>Total variable cost</t>
+  </si>
+  <si>
+    <t>Contribution margin</t>
+  </si>
+  <si>
+    <t>Cont. Corn</t>
+  </si>
+  <si>
+    <t>Rot. Corn</t>
+  </si>
+  <si>
+    <t>Rot. Beans</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>DC Beans</t>
+  </si>
+  <si>
+    <t>Cont Corn</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>(Revenue - variable costs/acre)</t>
   </si>
 </sst>
 </file>
@@ -362,283 +422,832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="B2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>166</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>183</v>
+      </c>
+      <c r="J3">
+        <v>195</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>84</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>213</v>
+      </c>
+      <c r="P3">
+        <v>227</v>
+      </c>
+      <c r="Q3">
+        <v>70</v>
+      </c>
+      <c r="R3">
+        <v>98</v>
+      </c>
+      <c r="S3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F4">
+        <v>5.35</v>
+      </c>
+      <c r="G4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L4">
+        <v>5.35</v>
+      </c>
+      <c r="M4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R4">
+        <v>5.35</v>
+      </c>
+      <c r="S4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>C4*C3</f>
+        <v>639.59999999999991</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:G5" si="0">D4*D3</f>
+        <v>680.59999999999991</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>494.7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>379.84999999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:M5" si="1">I4*I3</f>
+        <v>750.3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>799.49999999999989</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>449.4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>407.4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:S5" si="2">O4*O3</f>
+        <v>873.3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>930.69999999999993</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>679</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>524.29999999999995</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>475.29999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>194</v>
+      </c>
+      <c r="D8">
+        <v>178</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>205</v>
+      </c>
+      <c r="J8">
+        <v>189</v>
+      </c>
+      <c r="K8">
+        <v>82</v>
+      </c>
+      <c r="L8">
+        <v>128</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="O8">
+        <v>216</v>
+      </c>
+      <c r="P8">
+        <v>202</v>
+      </c>
+      <c r="Q8">
+        <v>94</v>
+      </c>
+      <c r="R8">
+        <v>153</v>
+      </c>
+      <c r="S8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>124</v>
+      </c>
+      <c r="J9">
+        <v>124</v>
+      </c>
+      <c r="K9">
+        <v>74</v>
+      </c>
+      <c r="L9">
+        <v>44</v>
+      </c>
+      <c r="M9">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <v>124</v>
+      </c>
+      <c r="P9">
+        <v>124</v>
+      </c>
+      <c r="Q9">
+        <v>74</v>
+      </c>
+      <c r="R9">
+        <v>44</v>
+      </c>
+      <c r="S9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>119</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>125</v>
+      </c>
+      <c r="J10">
+        <v>119</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>125</v>
+      </c>
+      <c r="P10">
+        <v>119</v>
+      </c>
+      <c r="Q10">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>58</v>
+      </c>
+      <c r="P11">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>45</v>
+      </c>
+      <c r="P13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>22</v>
+      </c>
+      <c r="P14">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>211</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
-        <v>208</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>334</v>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C8:C16)</f>
+        <v>623</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="3">SUM(D8:D16)</f>
+        <v>592</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:M17" si="4">SUM(I8:I16)</f>
+        <v>668</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>635</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>346</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="5">SUM(O8:O16)</f>
+        <v>691</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="6">SUM(P8:P16)</f>
+        <v>660</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="7">SUM(Q8:Q16)</f>
+        <v>360</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17" si="8">SUM(R8:R16)</f>
+        <v>341</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17" si="9">SUM(S8:S16)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <f>C5-C17</f>
+        <v>16.599999999999909</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:G19" si="10">D5-D17</f>
+        <v>88.599999999999909</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="10"/>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="10"/>
+        <v>93.849999999999966</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="10"/>
+        <v>97.199999999999989</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:S19" si="11">I5-I17</f>
+        <v>82.299999999999955</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="11"/>
+        <v>164.49999999999989</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="11"/>
+        <v>236</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="11"/>
+        <v>135.39999999999998</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>146.39999999999998</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="11"/>
+        <v>182.29999999999995</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="11"/>
+        <v>270.69999999999993</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="11"/>
+        <v>319</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="11"/>
+        <v>183.29999999999995</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>204.29999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\cropProjectionInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C4799-DE2D-4E18-A770-27CC22F94ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CFFFF-29FC-46AE-AE28-93482C2BF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20950" yWindow="2830" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="5780" windowWidth="14400" windowHeight="14110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Low Prod Soil" sheetId="1" r:id="rId1"/>
+    <sheet name="Avg Prod Soil" sheetId="2" r:id="rId2"/>
+    <sheet name="High Prod Soil" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,19 +517,19 @@
         <v>639.59999999999991</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:F4" si="0">C3*C2</f>
+        <f>C3*C2</f>
         <v>680.59999999999991</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>D3*D2</f>
         <v>494.7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>E3*E2</f>
         <v>379.84999999999997</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>F3*F2</f>
         <v>349.2</v>
       </c>
     </row>
@@ -724,19 +727,19 @@
         <v>623</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:F16" si="1">SUM(C7:C15)</f>
+        <f>SUM(C7:C15)</f>
         <v>592</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f>SUM(D7:D15)</f>
         <v>335</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>SUM(E7:E15)</f>
         <v>286</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>SUM(F7:F15)</f>
         <v>252</v>
       </c>
     </row>
@@ -749,19 +752,19 @@
         <v>16.599999999999909</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:F18" si="2">C4-C16</f>
+        <f>C4-C16</f>
         <v>88.599999999999909</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f>D4-D16</f>
         <v>159.69999999999999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f>E4-E16</f>
         <v>93.849999999999966</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f>F4-F16</f>
         <v>97.199999999999989</v>
       </c>
     </row>
@@ -770,649 +773,704 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0795DFFA-4FC2-4614-8C3E-1A0D9B0CF0F7}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A21:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>183</v>
+      </c>
+      <c r="C2">
+        <v>195</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E3">
+        <v>5.35</v>
+      </c>
+      <c r="F3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>B3*B2</f>
+        <v>750.3</v>
+      </c>
+      <c r="C4">
+        <f>C3*C2</f>
+        <v>799.49999999999989</v>
+      </c>
+      <c r="D4">
+        <f>D3*D2</f>
+        <v>582</v>
+      </c>
+      <c r="E4">
+        <f>E3*E2</f>
+        <v>449.4</v>
+      </c>
+      <c r="F4">
+        <f>F3*F2</f>
+        <v>407.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>205</v>
+      </c>
+      <c r="C7">
+        <v>189</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>124</v>
+      </c>
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B7:B15)</f>
+        <v>668</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C7:C15)</f>
+        <v>635</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D7:D15)</f>
+        <v>346</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E7:E15)</f>
+        <v>314</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F7:F15)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>B4-B16</f>
+        <v>82.299999999999955</v>
+      </c>
+      <c r="C18">
+        <f>C4-C16</f>
+        <v>164.49999999999989</v>
+      </c>
+      <c r="D18">
+        <f>D4-D16</f>
+        <v>236</v>
+      </c>
+      <c r="E18">
+        <f>E4-E16</f>
+        <v>135.39999999999998</v>
+      </c>
+      <c r="F18">
+        <f>F4-F16</f>
+        <v>146.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C39DE-E5D8-461A-BF7A-1F2C49D7A823}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>183</v>
-      </c>
-      <c r="C22">
-        <v>195</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>84</v>
-      </c>
-      <c r="F22">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <v>227</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C23">
+      <c r="C3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D23">
+      <c r="D3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E23">
+      <c r="E3">
         <v>5.35</v>
       </c>
-      <c r="F23">
+      <c r="F3">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
-        <f>B23*B22</f>
-        <v>750.3</v>
-      </c>
-      <c r="C24">
-        <f>C23*C22</f>
-        <v>799.49999999999989</v>
-      </c>
-      <c r="D24">
-        <f>D23*D22</f>
-        <v>582</v>
-      </c>
-      <c r="E24">
-        <f>E23*E22</f>
-        <v>449.4</v>
-      </c>
-      <c r="F24">
-        <f>F23*F22</f>
-        <v>407.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B4">
+        <f>B3*B2</f>
+        <v>873.3</v>
+      </c>
+      <c r="C4">
+        <f>C3*C2</f>
+        <v>930.69999999999993</v>
+      </c>
+      <c r="D4">
+        <f>D3*D2</f>
+        <v>679</v>
+      </c>
+      <c r="E4">
+        <f>E3*E2</f>
+        <v>524.29999999999995</v>
+      </c>
+      <c r="F4">
+        <f>F3*F2</f>
+        <v>475.29999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>205</v>
-      </c>
-      <c r="C27">
-        <v>189</v>
-      </c>
-      <c r="D27">
-        <v>82</v>
-      </c>
-      <c r="E27">
-        <v>128</v>
-      </c>
-      <c r="F27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B7">
+        <v>216</v>
+      </c>
+      <c r="C7">
+        <v>202</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>153</v>
+      </c>
+      <c r="F7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B8">
         <v>124</v>
       </c>
-      <c r="C28">
+      <c r="C8">
         <v>124</v>
       </c>
-      <c r="D28">
+      <c r="D8">
         <v>74</v>
       </c>
-      <c r="E28">
+      <c r="E8">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="F8">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B9">
         <v>125</v>
       </c>
-      <c r="C29">
+      <c r="C9">
         <v>119</v>
       </c>
-      <c r="D29">
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="E29">
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="F29">
+      <c r="F9">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B30">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F30">
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <v>21</v>
-      </c>
-      <c r="D31">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="E31">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>45</v>
-      </c>
-      <c r="C32">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <v>40</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>15</v>
-      </c>
-      <c r="F34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-      <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>40</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <f>SUM(B27:B35)</f>
-        <v>668</v>
-      </c>
-      <c r="C36">
-        <f>SUM(C27:C35)</f>
-        <v>635</v>
-      </c>
-      <c r="D36">
-        <f>SUM(D27:D35)</f>
-        <v>346</v>
-      </c>
-      <c r="E36">
-        <f>SUM(E27:E35)</f>
-        <v>314</v>
-      </c>
-      <c r="F36">
-        <f>SUM(F27:F35)</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B16">
+        <f>SUM(B7:B15)</f>
+        <v>691</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C7:C15)</f>
+        <v>660</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D7:D15)</f>
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E7:E15)</f>
+        <v>341</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F7:F15)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B38">
-        <f>B24-B36</f>
-        <v>82.299999999999955</v>
-      </c>
-      <c r="C38">
-        <f>C24-C36</f>
-        <v>164.49999999999989</v>
-      </c>
-      <c r="D38">
-        <f>D24-D36</f>
-        <v>236</v>
-      </c>
-      <c r="E38">
-        <f>E24-E36</f>
-        <v>135.39999999999998</v>
-      </c>
-      <c r="F38">
-        <f>F24-F36</f>
-        <v>146.39999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B18">
+        <f>B4-B16</f>
+        <v>182.29999999999995</v>
+      </c>
+      <c r="C18">
+        <f>C4-C16</f>
+        <v>270.69999999999993</v>
+      </c>
+      <c r="D18">
+        <f>D4-D16</f>
+        <v>319</v>
+      </c>
+      <c r="E18">
+        <f>E4-E16</f>
+        <v>183.29999999999995</v>
+      </c>
+      <c r="F18">
+        <f>F4-F16</f>
+        <v>204.29999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>213</v>
-      </c>
-      <c r="C42">
-        <v>227</v>
-      </c>
-      <c r="D42">
-        <v>70</v>
-      </c>
-      <c r="E42">
-        <v>98</v>
-      </c>
-      <c r="F42">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C43">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D43">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E43">
-        <v>5.35</v>
-      </c>
-      <c r="F43">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44:F44" si="3">B43*B42</f>
-        <v>873.3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>930.69999999999993</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="3"/>
-        <v>679</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>524.29999999999995</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>475.29999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>216</v>
-      </c>
-      <c r="C47">
-        <v>202</v>
-      </c>
-      <c r="D47">
-        <v>94</v>
-      </c>
-      <c r="E47">
-        <v>153</v>
-      </c>
-      <c r="F47">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>124</v>
-      </c>
-      <c r="C48">
-        <v>124</v>
-      </c>
-      <c r="D48">
-        <v>74</v>
-      </c>
-      <c r="E48">
-        <v>44</v>
-      </c>
-      <c r="F48">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>125</v>
-      </c>
-      <c r="C49">
-        <v>119</v>
-      </c>
-      <c r="D49">
-        <v>75</v>
-      </c>
-      <c r="E49">
-        <v>40</v>
-      </c>
-      <c r="F49">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>58</v>
-      </c>
-      <c r="C50">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>21</v>
-      </c>
-      <c r="C51">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>13</v>
-      </c>
-      <c r="F51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>45</v>
-      </c>
-      <c r="C52">
-        <v>45</v>
-      </c>
-      <c r="D52">
-        <v>40</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53">
-        <v>22</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54">
-        <v>30</v>
-      </c>
-      <c r="C54">
-        <v>29</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
-        <v>50</v>
-      </c>
-      <c r="C55">
-        <v>50</v>
-      </c>
-      <c r="D55">
-        <v>40</v>
-      </c>
-      <c r="E55">
-        <v>25</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="4">SUM(B47:B55)</f>
-        <v>691</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56" si="5">SUM(C47:C55)</f>
-        <v>660</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56" si="6">SUM(D47:D55)</f>
-        <v>360</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56" si="7">SUM(E47:E55)</f>
-        <v>341</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ref="F56" si="8">SUM(F47:F55)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58">
-        <f>B44-B56</f>
-        <v>182.29999999999995</v>
-      </c>
-      <c r="C58">
-        <f>C44-C56</f>
-        <v>270.69999999999993</v>
-      </c>
-      <c r="D58">
-        <f>D44-D56</f>
-        <v>319</v>
-      </c>
-      <c r="E58">
-        <f>E44-E56</f>
-        <v>183.29999999999995</v>
-      </c>
-      <c r="F58">
-        <f>F44-F56</f>
-        <v>204.29999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\cropProjectionInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CFFFF-29FC-46AE-AE28-93482C2BF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E2C7F4-57D4-46D2-9DD7-55FFC0ACCC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="5780" windowWidth="14400" windowHeight="14110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20950" yWindow="2830" windowWidth="14400" windowHeight="14110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Low Prod Soil" sheetId="1" r:id="rId1"/>
@@ -52,33 +52,6 @@
     <t>Less variable costs</t>
   </si>
   <si>
-    <t xml:space="preserve">  Fertilizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Pesticides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dryer Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Machinery fuel ($2.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Machinery repairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Hauling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Insurance/misc.</t>
-  </si>
-  <si>
     <t>Total variable cost</t>
   </si>
   <si>
@@ -107,6 +80,33 @@
   </si>
   <si>
     <t>(Revenue - variable costs/acre)</t>
+  </si>
+  <si>
+    <t>- Fertilizer</t>
+  </si>
+  <si>
+    <t>- Seed</t>
+  </si>
+  <si>
+    <t>- Pesticides</t>
+  </si>
+  <si>
+    <t>- Dryer Fuel</t>
+  </si>
+  <si>
+    <t>- Machinery fuel ($2.89)</t>
+  </si>
+  <si>
+    <t>- Machinery repairs</t>
+  </si>
+  <si>
+    <t>- Hauling</t>
+  </si>
+  <si>
+    <t>- Interest</t>
+  </si>
+  <si>
+    <t>- Insurance/misc.</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,19 +453,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -540,7 +540,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>194</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>102</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>125</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>42</v>
@@ -609,10 +609,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <f>SUM(B7:B15)</f>
@@ -745,7 +745,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <f>B4-B16</f>
@@ -770,7 +770,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A21:A26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,19 +801,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>205</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>124</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>125</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>49</v>
@@ -957,10 +957,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <f>SUM(B7:B15)</f>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <f>B4-B16</f>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C39DE-E5D8-461A-BF7A-1F2C49D7A823}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1149,19 +1149,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>216</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>124</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>125</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>58</v>
@@ -1305,10 +1305,10 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>45</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <f>SUM(B7:B15)</f>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <f>B4-B16</f>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
